--- a/MAX30102 Data Format.xlsx
+++ b/MAX30102 Data Format.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="v1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="54">
   <si>
     <t>Data transfer packet designed for BLE Packet Size</t>
   </si>
@@ -93,16 +93,97 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Packet #</t>
+  </si>
+  <si>
+    <t>4 samples per packet</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Packet type</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>ECG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>6 samples per packet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @200 SPS: 1 packet every 20 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @500 SPS: 1 packet every 12 ms</t>
+  </si>
+  <si>
+    <t>Packet type: 00</t>
+  </si>
+  <si>
+    <t>ECG Packet</t>
+  </si>
+  <si>
+    <t>PPG packet</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>"OTHER" bits:</t>
+  </si>
+  <si>
+    <t>Packet # goes from 1 to 50</t>
+  </si>
+  <si>
+    <t>Packet # goes from 1 t0 50</t>
+  </si>
+  <si>
+    <t>Packet type: 01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -110,22 +191,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,227 +228,420 @@
         <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FF66CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="17">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="72">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -435,101 +700,396 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="1" width="3.88775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="11.5204081632653"/>
+    <col min="1" max="2" width="11.5703125" style="1"/>
+    <col min="3" max="10" width="3.85546875" style="1"/>
+    <col min="11" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="L1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="L2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="L3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="L4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="0"/>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
       <c r="L5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="n">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -554,11 +1114,11 @@
       <c r="J6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="n">
-        <f aca="false">SUM(B6+1)</f>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <f>SUM(B6+1)</f>
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -585,11 +1145,11 @@
       <c r="J7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="n">
-        <f aca="false">B7+1</f>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <f t="shared" ref="B8:B25" si="0">B7+1</f>
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -620,9 +1180,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="n">
-        <f aca="false">B8+1</f>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -653,9 +1213,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="n">
-        <f aca="false">B9+1</f>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -686,9 +1246,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="n">
-        <f aca="false">B10+1</f>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -719,9 +1279,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="n">
-        <f aca="false">B11+1</f>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -749,9 +1309,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="n">
-        <f aca="false">B12+1</f>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -779,9 +1339,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="n">
-        <f aca="false">B13+1</f>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -809,9 +1369,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="n">
-        <f aca="false">B14+1</f>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -839,9 +1399,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="n">
-        <f aca="false">B15+1</f>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -869,9 +1429,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="n">
-        <f aca="false">B16+1</f>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -899,9 +1459,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="n">
-        <f aca="false">B17+1</f>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -929,9 +1489,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3" t="n">
-        <f aca="false">B18+1</f>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C19" s="24" t="s">
@@ -959,9 +1519,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3" t="n">
-        <f aca="false">B19+1</f>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -989,9 +1549,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="n">
-        <f aca="false">B20+1</f>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -1019,9 +1579,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3" t="n">
-        <f aca="false">B21+1</f>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -1049,9 +1609,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="n">
-        <f aca="false">B22+1</f>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -1079,9 +1639,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="n">
-        <f aca="false">B23+1</f>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C24" s="21" t="s">
@@ -1109,9 +1669,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3" t="n">
-        <f aca="false">B24+1</f>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -1140,10 +1700,1938 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="10" width="3.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="24" width="3.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="1025" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
+      <c r="O4" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="68"/>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+      <c r="O5" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="53"/>
+    </row>
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="O6" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="53"/>
+    </row>
+    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="53"/>
+      <c r="O7" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="53"/>
+    </row>
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="53"/>
+    </row>
+    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="55"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="53"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="53"/>
+    </row>
+    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="53"/>
+      <c r="O10" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="53"/>
+    </row>
+    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="56">
+        <v>0</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="52"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="53"/>
+      <c r="O11" s="56">
+        <v>0</v>
+      </c>
+      <c r="P11" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="31">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="53"/>
+    </row>
+    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="56">
+        <f>SUM(B11+1)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="52"/>
+      <c r="L12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="53"/>
+      <c r="O12" s="56">
+        <f>SUM(O11+1)</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z12" s="53"/>
+    </row>
+    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="56">
+        <f t="shared" ref="B13:B30" si="0">B12+1</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="52"/>
+      <c r="L13" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="53"/>
+      <c r="O13" s="56">
+        <f t="shared" ref="O13:O30" si="1">O12+1</f>
+        <v>2</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="53"/>
+    </row>
+    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="52"/>
+      <c r="L14" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="53"/>
+      <c r="O14" s="56">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P14" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z14" s="53"/>
+    </row>
+    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="56">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="52"/>
+      <c r="L15" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="53"/>
+      <c r="O15" s="56">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z15" s="53"/>
+    </row>
+    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="56">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="52"/>
+      <c r="L16" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="53"/>
+      <c r="O16" s="56">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z16" s="53"/>
+    </row>
+    <row r="17" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="56">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
+      <c r="O17" s="56">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="53"/>
+    </row>
+    <row r="18" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="56">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="53"/>
+      <c r="O18" s="56">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P18" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="T18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="53"/>
+    </row>
+    <row r="19" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="56">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
+      <c r="O19" s="56">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="V19" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="53"/>
+    </row>
+    <row r="20" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="56">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
+      <c r="O20" s="56">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P20" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="U20" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="V20" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="53"/>
+    </row>
+    <row r="21" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="56">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
+      <c r="O21" s="56">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="53"/>
+    </row>
+    <row r="22" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="56">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="53"/>
+      <c r="O22" s="56">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="53"/>
+    </row>
+    <row r="23" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="56">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
+      <c r="O23" s="56">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="53"/>
+    </row>
+    <row r="24" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="56">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="53"/>
+      <c r="O24" s="56">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="P24" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="R24" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="U24" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="V24" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="W24" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="53"/>
+    </row>
+    <row r="25" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="56">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="53"/>
+      <c r="O25" s="56">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P25" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="U25" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="W25" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="53"/>
+    </row>
+    <row r="26" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="56">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="53"/>
+      <c r="O26" s="56">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P26" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="W26" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="53"/>
+    </row>
+    <row r="27" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="56">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53"/>
+      <c r="O27" s="56">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="R27" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S27" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W27" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="53"/>
+    </row>
+    <row r="28" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="56">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="53"/>
+      <c r="O28" s="56">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="53"/>
+    </row>
+    <row r="29" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="56">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
+      <c r="O29" s="56">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="R29" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="S29" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="T29" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="V29" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="W29" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="53"/>
+    </row>
+    <row r="30" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="56">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="53"/>
+      <c r="O30" s="56">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="T30" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="53"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B31" s="61"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="53"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="52"/>
+      <c r="Z31" s="53"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B32" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="53"/>
+      <c r="O32" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="53"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B33" s="61">
+        <v>25</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="29"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="53"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="53"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B34" s="61">
+        <v>26</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="53"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="53"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B35" s="61"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="53"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="53"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B36" s="61"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="53"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="53"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B37" s="61"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="53"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="53"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B38" s="61"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="53"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B39" s="61"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="53"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="53"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B40" s="61"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="53"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="53"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B41" s="61"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="53"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="53"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B42" s="62"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="64"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="P32:W32"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/MAX30102 Data Format.xlsx
+++ b/MAX30102 Data Format.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="1" r:id="rId1"/>
     <sheet name="v2" sheetId="2" r:id="rId2"/>
+    <sheet name="v3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="119">
   <si>
     <t>Data transfer packet designed for BLE Packet Size</t>
   </si>
@@ -146,12 +147,6 @@
     <t>6 samples per packet</t>
   </si>
   <si>
-    <t xml:space="preserve"> @200 SPS: 1 packet every 20 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @500 SPS: 1 packet every 12 ms</t>
-  </si>
-  <si>
     <t>Packet type: 00</t>
   </si>
   <si>
@@ -170,13 +165,214 @@
     <t>"OTHER" bits:</t>
   </si>
   <si>
-    <t>Packet # goes from 1 to 50</t>
-  </si>
-  <si>
-    <t>Packet # goes from 1 t0 50</t>
-  </si>
-  <si>
     <t>Packet type: 01</t>
+  </si>
+  <si>
+    <t>Packet # goes from 0 to 63</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @200 SPS: 1 packet every 20 ms (50 packets/sec; 64 packets=1.28 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @500 SPS: 1 packet every 12 ms (83.3 packets/sec' 64 packets=.768 sec)</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>What is this?</t>
+  </si>
+  <si>
+    <t>Answer:</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T </t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>Sa</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>tf:</t>
+  </si>
+  <si>
+    <t>1 if there's a valid peak location in these three byte 19's; otherwise 0</t>
+  </si>
+  <si>
+    <t>PoP#</t>
+  </si>
+  <si>
+    <t>The lowest 11 bits of the packet number.</t>
+  </si>
+  <si>
+    <t>The specific sample number within the packet where the peak was</t>
+  </si>
+  <si>
+    <t>The instantaneous heart rate for this peak, in BPM</t>
+  </si>
+  <si>
+    <t>samp#</t>
+  </si>
+  <si>
+    <t>inst HR</t>
+  </si>
+  <si>
+    <t>Packet type: 10</t>
+  </si>
+  <si>
+    <t>PPG waveform packet (MAX_WFM)</t>
+  </si>
+  <si>
+    <t>PPG auxiliary data packet (MAX_AUX)</t>
+  </si>
+  <si>
+    <t>ECG waveform packet (ADS_WFM)</t>
+  </si>
+  <si>
+    <t>ECG auxiliary data packet (ADS_AUX)</t>
+  </si>
+  <si>
+    <t>Packet type: 11</t>
+  </si>
+  <si>
+    <t>Packet # goes from 0 to 16383</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @200 SPS: 1 packet every 20 ms (50 packets/sec; 16384 packets=327 sec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @500 SPS: 1 packet every 12 ms (83.3 packets/sec; 16384 packets=196 sec)</t>
+  </si>
+  <si>
+    <t>Packet fires off whenever there is data to send</t>
+  </si>
+  <si>
+    <t>rpt</t>
+  </si>
+  <si>
+    <t>Repeat?</t>
+  </si>
+  <si>
+    <t>Reference pkt #</t>
+  </si>
+  <si>
+    <t>peaks</t>
+  </si>
+  <si>
+    <t># of peaks in pkt</t>
+  </si>
+  <si>
+    <t>peak 0</t>
+  </si>
+  <si>
+    <t>peak 1</t>
+  </si>
+  <si>
+    <t>if rpt=0</t>
+  </si>
+  <si>
+    <t>if rpt=1</t>
+  </si>
+  <si>
+    <t>peak data</t>
+  </si>
+  <si>
+    <t>peak 3</t>
+  </si>
+  <si>
+    <t>peak 4</t>
+  </si>
+  <si>
+    <t>peak 5</t>
+  </si>
+  <si>
+    <t>peak 6</t>
+  </si>
+  <si>
+    <t>peak 7</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>hrv</t>
+  </si>
+  <si>
+    <t>spv</t>
+  </si>
+  <si>
+    <t>heart rate</t>
+  </si>
+  <si>
+    <t>SpO2</t>
+  </si>
+  <si>
+    <t>temperature integer</t>
+  </si>
+  <si>
+    <t>temperature fraction</t>
+  </si>
+  <si>
+    <t>heart rate valid?</t>
+  </si>
+  <si>
+    <t>SpO2 valid?</t>
+  </si>
+  <si>
+    <t>what is in a peak?</t>
+  </si>
+  <si>
+    <t>samp</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>14 LSB of Pkt #</t>
+  </si>
+  <si>
+    <t>24-bit reference packet number,&gt;&gt;6</t>
+  </si>
+  <si>
+    <t>rpt=0 form is sent every 64 MAX_WFM packets</t>
+  </si>
+  <si>
+    <t>rpt=1 form is/are sent right after rpt=0 form if there are &gt;6 peaks in the buffer</t>
+  </si>
+  <si>
+    <t>The lowest 6 bits of the MAX_WFM packet number which contains the peak.</t>
   </si>
 </sst>
 </file>
@@ -197,7 +393,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +448,104 @@
         <bgColor rgb="FFCC99FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -421,11 +713,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,6 +973,60 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,6 +1043,160 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1711,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK42"/>
+  <dimension ref="A1:AMK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1775,34 +2338,34 @@
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68"/>
-      <c r="O4" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="68"/>
+      <c r="B4" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="86"/>
+      <c r="O4" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="86"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1838,7 +2401,7 @@
     <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -1852,7 +2415,7 @@
       <c r="L6" s="52"/>
       <c r="M6" s="53"/>
       <c r="O6" s="51" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
@@ -1868,7 +2431,7 @@
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -1882,7 +2445,7 @@
       <c r="L7" s="54"/>
       <c r="M7" s="53"/>
       <c r="O7" s="51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P7" s="54"/>
       <c r="Q7" s="54"/>
@@ -1898,7 +2461,7 @@
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="51" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -1912,7 +2475,7 @@
       <c r="L8" s="54"/>
       <c r="M8" s="53"/>
       <c r="O8" s="51" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="P8" s="54"/>
       <c r="Q8" s="54"/>
@@ -3236,9 +3799,15 @@
       <c r="G30" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="29"/>
+      <c r="H30" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="K30" s="52"/>
       <c r="L30" s="52"/>
       <c r="M30" s="53"/>
@@ -3261,9 +3830,15 @@
       <c r="T30" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="29"/>
+      <c r="U30" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="V30" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="W30" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="X30" s="52"/>
       <c r="Y30" s="52"/>
       <c r="Z30" s="53"/>
@@ -3298,329 +3873,2875 @@
       <c r="B32" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="71"/>
+      <c r="C32" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="89"/>
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
       <c r="M32" s="53"/>
       <c r="O32" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="P32" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="70"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="70"/>
-      <c r="U32" s="70"/>
-      <c r="V32" s="70"/>
-      <c r="W32" s="71"/>
+      <c r="P32" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="89"/>
       <c r="X32" s="52"/>
       <c r="Y32" s="52"/>
       <c r="Z32" s="53"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B33" s="61">
-        <v>25</v>
-      </c>
-      <c r="C33" s="27" t="s">
+      <c r="B33" s="74">
+        <v>0</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="29"/>
+      <c r="J33" s="71" t="s">
+        <v>7</v>
+      </c>
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
       <c r="M33" s="53"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="29"/>
+      <c r="O33" s="61">
+        <v>0</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="R33" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="S33" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="T33" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="U33" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="V33" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="W33" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="X33" s="52"/>
       <c r="Y33" s="52"/>
       <c r="Z33" s="53"/>
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B34" s="61">
-        <v>26</v>
-      </c>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="74">
+        <f>B33+1</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="28">
+        <v>18</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="29" t="s">
         <v>23</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>32</v>
       </c>
       <c r="K34" s="52"/>
       <c r="L34" s="52"/>
       <c r="M34" s="53"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="29"/>
+      <c r="O34" s="61">
+        <f>O33+1</f>
+        <v>1</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q34" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="S34" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="T34" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="U34" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="V34" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="W34" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="X34" s="52"/>
       <c r="Y34" s="52"/>
       <c r="Z34" s="53"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B35" s="61"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="29"/>
+      <c r="B35" s="74">
+        <f t="shared" ref="B35:B96" si="2">B34+1</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="71" t="s">
+        <v>27</v>
+      </c>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
       <c r="M35" s="53"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="29"/>
+      <c r="O35" s="61">
+        <f t="shared" ref="O35:O96" si="3">O34+1</f>
+        <v>2</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="R35" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="T35" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="U35" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="V35" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="W35" s="29" t="s">
+        <v>7</v>
+      </c>
       <c r="X35" s="52"/>
       <c r="Y35" s="52"/>
       <c r="Z35" s="53"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B36" s="61"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="29"/>
+      <c r="B36" s="74">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="28">
+        <v>14</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>4</v>
+      </c>
       <c r="K36" s="52"/>
       <c r="L36" s="52"/>
       <c r="M36" s="53"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="29"/>
+      <c r="O36" s="61">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="R36" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="S36" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="T36" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="U36" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="V36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W36" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="X36" s="52"/>
       <c r="Y36" s="52"/>
       <c r="Z36" s="53"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B37" s="61"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="29"/>
+      <c r="B37" s="61">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="K37" s="52"/>
       <c r="L37" s="52"/>
       <c r="M37" s="53"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="29"/>
+      <c r="O37" s="61">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="67"/>
       <c r="X37" s="52"/>
       <c r="Y37" s="52"/>
       <c r="Z37" s="53"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B38" s="61"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="29"/>
+      <c r="B38" s="61">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="69">
+        <v>2</v>
+      </c>
+      <c r="G38" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="70" t="s">
+        <v>57</v>
+      </c>
       <c r="K38" s="52"/>
       <c r="L38" s="52"/>
       <c r="M38" s="53"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="29"/>
+      <c r="O38" s="61">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
       <c r="X38" s="52"/>
       <c r="Y38" s="52"/>
       <c r="Z38" s="53"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B39" s="61"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="29"/>
+      <c r="B39" s="61">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
       <c r="K39" s="52"/>
       <c r="L39" s="52"/>
       <c r="M39" s="53"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="29"/>
+      <c r="O39" s="61">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
       <c r="X39" s="52"/>
       <c r="Y39" s="52"/>
       <c r="Z39" s="53"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B40" s="61"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
+      <c r="B40" s="61">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
       <c r="K40" s="52"/>
       <c r="L40" s="52"/>
       <c r="M40" s="53"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
+      <c r="O40" s="61">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
       <c r="X40" s="52"/>
       <c r="Y40" s="52"/>
       <c r="Z40" s="53"/>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B41" s="61"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
+      <c r="B41" s="61">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C41" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="71" t="s">
+        <v>5</v>
+      </c>
       <c r="K41" s="52"/>
       <c r="L41" s="52"/>
       <c r="M41" s="53"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
+      <c r="O41" s="61">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
       <c r="X41" s="52"/>
       <c r="Y41" s="52"/>
       <c r="Z41" s="53"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B42" s="62"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="64"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="63"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="63"/>
-      <c r="V42" s="63"/>
-      <c r="W42" s="63"/>
-      <c r="X42" s="63"/>
-      <c r="Y42" s="63"/>
-      <c r="Z42" s="64"/>
+      <c r="B42" s="61">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="53"/>
+      <c r="O42" s="61">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="53"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B43" s="61">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="28">
+        <v>2</v>
+      </c>
+      <c r="J43" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="53"/>
+      <c r="O43" s="61">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="53"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B44" s="61">
+        <f t="shared" ref="B44:B72" si="4">B43+1</f>
+        <v>11</v>
+      </c>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="53"/>
+      <c r="O44" s="61">
+        <f t="shared" ref="O44:O72" si="5">O43+1</f>
+        <v>11</v>
+      </c>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="60"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="53"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B45" s="61">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="53"/>
+      <c r="O45" s="61">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="60"/>
+      <c r="W45" s="60"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="53"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B46" s="61">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="53"/>
+      <c r="O46" s="61">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="53"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B47" s="61">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="53"/>
+      <c r="O47" s="61">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="60"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="53"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B48" s="61">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="53"/>
+      <c r="O48" s="61">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
+      <c r="V48" s="60"/>
+      <c r="W48" s="60"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="53"/>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B49" s="61">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="C49" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J49" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="53"/>
+      <c r="O49" s="61">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="53"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B50" s="61">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="53"/>
+      <c r="O50" s="61">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="Z50" s="53"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B51" s="61">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="28">
+        <v>2</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="53"/>
+      <c r="O51" s="61">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="60"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="53"/>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B52" s="61">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="53"/>
+      <c r="O52" s="61">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="53"/>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B53" s="61">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="C53" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="70"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="53"/>
+      <c r="O53" s="61">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="53"/>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B54" s="61">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="53"/>
+      <c r="O54" s="61">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="60"/>
+      <c r="V54" s="60"/>
+      <c r="W54" s="60"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="53"/>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B55" s="61">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="53"/>
+      <c r="O55" s="61">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="60"/>
+      <c r="V55" s="60"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="53"/>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B56" s="61">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="53"/>
+      <c r="O56" s="61">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="60"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="60"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="53"/>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B57" s="61">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="C57" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="53"/>
+      <c r="O57" s="61">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
+      <c r="V57" s="60"/>
+      <c r="W57" s="60"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="53"/>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B58" s="61">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G58" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="53"/>
+      <c r="O58" s="61">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
+      <c r="V58" s="60"/>
+      <c r="W58" s="60"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="53"/>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B59" s="61">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="28">
+        <v>2</v>
+      </c>
+      <c r="J59" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="53"/>
+      <c r="O59" s="61">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="60"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="60"/>
+      <c r="V59" s="60"/>
+      <c r="W59" s="60"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="53"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B60" s="61">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="53"/>
+      <c r="O60" s="61">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="60"/>
+      <c r="U60" s="60"/>
+      <c r="V60" s="60"/>
+      <c r="W60" s="60"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="53"/>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B61" s="61">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="53"/>
+      <c r="O61" s="61">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="60"/>
+      <c r="U61" s="60"/>
+      <c r="V61" s="60"/>
+      <c r="W61" s="60"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="53"/>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B62" s="61">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+      <c r="I62" s="60"/>
+      <c r="J62" s="60"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="53"/>
+      <c r="O62" s="61">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="P62" s="60"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="60"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="60"/>
+      <c r="V62" s="60"/>
+      <c r="W62" s="60"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+      <c r="Z62" s="53"/>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B63" s="61">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="53"/>
+      <c r="O63" s="61">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="P63" s="60"/>
+      <c r="Q63" s="60"/>
+      <c r="R63" s="60"/>
+      <c r="S63" s="60"/>
+      <c r="T63" s="60"/>
+      <c r="U63" s="60"/>
+      <c r="V63" s="60"/>
+      <c r="W63" s="60"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="53"/>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B64" s="61">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="53"/>
+      <c r="O64" s="61">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="P64" s="60"/>
+      <c r="Q64" s="60"/>
+      <c r="R64" s="60"/>
+      <c r="S64" s="60"/>
+      <c r="T64" s="60"/>
+      <c r="U64" s="60"/>
+      <c r="V64" s="60"/>
+      <c r="W64" s="60"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="53"/>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B65" s="61">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="C65" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="53"/>
+      <c r="O65" s="61">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="P65" s="60"/>
+      <c r="Q65" s="60"/>
+      <c r="R65" s="60"/>
+      <c r="S65" s="60"/>
+      <c r="T65" s="60"/>
+      <c r="U65" s="60"/>
+      <c r="V65" s="60"/>
+      <c r="W65" s="60"/>
+      <c r="X65" s="52"/>
+      <c r="Y65" s="52"/>
+      <c r="Z65" s="53"/>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B66" s="61">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="C66" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H66" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="53"/>
+      <c r="O66" s="61">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="P66" s="60"/>
+      <c r="Q66" s="60"/>
+      <c r="R66" s="60"/>
+      <c r="S66" s="60"/>
+      <c r="T66" s="60"/>
+      <c r="U66" s="60"/>
+      <c r="V66" s="60"/>
+      <c r="W66" s="60"/>
+      <c r="X66" s="52"/>
+      <c r="Y66" s="52"/>
+      <c r="Z66" s="53"/>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B67" s="61">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" s="28">
+        <v>2</v>
+      </c>
+      <c r="J67" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="53"/>
+      <c r="O67" s="61">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="60"/>
+      <c r="R67" s="60"/>
+      <c r="S67" s="60"/>
+      <c r="T67" s="60"/>
+      <c r="U67" s="60"/>
+      <c r="V67" s="60"/>
+      <c r="W67" s="60"/>
+      <c r="X67" s="52"/>
+      <c r="Y67" s="52"/>
+      <c r="Z67" s="53"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B68" s="61">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="53"/>
+      <c r="O68" s="61">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="P68" s="60"/>
+      <c r="Q68" s="60"/>
+      <c r="R68" s="60"/>
+      <c r="S68" s="60"/>
+      <c r="T68" s="60"/>
+      <c r="U68" s="60"/>
+      <c r="V68" s="60"/>
+      <c r="W68" s="60"/>
+      <c r="X68" s="52"/>
+      <c r="Y68" s="52"/>
+      <c r="Z68" s="53"/>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B69" s="61">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="53"/>
+      <c r="O69" s="61">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="P69" s="60"/>
+      <c r="Q69" s="60"/>
+      <c r="R69" s="60"/>
+      <c r="S69" s="60"/>
+      <c r="T69" s="60"/>
+      <c r="U69" s="60"/>
+      <c r="V69" s="60"/>
+      <c r="W69" s="60"/>
+      <c r="X69" s="52"/>
+      <c r="Y69" s="52"/>
+      <c r="Z69" s="53"/>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B70" s="61">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="53"/>
+      <c r="O70" s="61">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="P70" s="60"/>
+      <c r="Q70" s="60"/>
+      <c r="R70" s="60"/>
+      <c r="S70" s="60"/>
+      <c r="T70" s="60"/>
+      <c r="U70" s="60"/>
+      <c r="V70" s="60"/>
+      <c r="W70" s="60"/>
+      <c r="X70" s="52"/>
+      <c r="Y70" s="52"/>
+      <c r="Z70" s="53"/>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B71" s="61">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="53"/>
+      <c r="O71" s="61">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="P71" s="60"/>
+      <c r="Q71" s="60"/>
+      <c r="R71" s="60"/>
+      <c r="S71" s="60"/>
+      <c r="T71" s="60"/>
+      <c r="U71" s="60"/>
+      <c r="V71" s="60"/>
+      <c r="W71" s="60"/>
+      <c r="X71" s="52"/>
+      <c r="Y71" s="52"/>
+      <c r="Z71" s="53"/>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B72" s="61">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="53"/>
+      <c r="O72" s="61">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="60"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="60"/>
+      <c r="U72" s="60"/>
+      <c r="V72" s="60"/>
+      <c r="W72" s="60"/>
+      <c r="X72" s="52"/>
+      <c r="Y72" s="52"/>
+      <c r="Z72" s="53"/>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B73" s="61">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C73" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="53"/>
+      <c r="O73" s="61">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="P73" s="60"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="60"/>
+      <c r="S73" s="60"/>
+      <c r="T73" s="60"/>
+      <c r="U73" s="60"/>
+      <c r="V73" s="60"/>
+      <c r="W73" s="60"/>
+      <c r="X73" s="52"/>
+      <c r="Y73" s="52"/>
+      <c r="Z73" s="53"/>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B74" s="61">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="C74" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H74" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="53"/>
+      <c r="O74" s="61">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="P74" s="60"/>
+      <c r="Q74" s="60"/>
+      <c r="R74" s="60"/>
+      <c r="S74" s="60"/>
+      <c r="T74" s="60"/>
+      <c r="U74" s="60"/>
+      <c r="V74" s="60"/>
+      <c r="W74" s="60"/>
+      <c r="X74" s="52"/>
+      <c r="Y74" s="52"/>
+      <c r="Z74" s="53"/>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B75" s="61">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F75" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" s="28">
+        <v>2</v>
+      </c>
+      <c r="J75" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="53"/>
+      <c r="O75" s="61">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="P75" s="60"/>
+      <c r="Q75" s="60"/>
+      <c r="R75" s="60"/>
+      <c r="S75" s="60"/>
+      <c r="T75" s="60"/>
+      <c r="U75" s="60"/>
+      <c r="V75" s="60"/>
+      <c r="W75" s="60"/>
+      <c r="X75" s="52"/>
+      <c r="Y75" s="52"/>
+      <c r="Z75" s="53"/>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B76" s="61">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="53"/>
+      <c r="O76" s="61">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="P76" s="60"/>
+      <c r="Q76" s="60"/>
+      <c r="R76" s="60"/>
+      <c r="S76" s="60"/>
+      <c r="T76" s="60"/>
+      <c r="U76" s="60"/>
+      <c r="V76" s="60"/>
+      <c r="W76" s="60"/>
+      <c r="X76" s="52"/>
+      <c r="Y76" s="52"/>
+      <c r="Z76" s="53"/>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B77" s="61">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="53"/>
+      <c r="O77" s="61">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="P77" s="60"/>
+      <c r="Q77" s="60"/>
+      <c r="R77" s="60"/>
+      <c r="S77" s="60"/>
+      <c r="T77" s="60"/>
+      <c r="U77" s="60"/>
+      <c r="V77" s="60"/>
+      <c r="W77" s="60"/>
+      <c r="X77" s="52"/>
+      <c r="Y77" s="52"/>
+      <c r="Z77" s="53"/>
+    </row>
+    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B78" s="61">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="53"/>
+      <c r="O78" s="61">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="P78" s="60"/>
+      <c r="Q78" s="60"/>
+      <c r="R78" s="60"/>
+      <c r="S78" s="60"/>
+      <c r="T78" s="60"/>
+      <c r="U78" s="60"/>
+      <c r="V78" s="60"/>
+      <c r="W78" s="60"/>
+      <c r="X78" s="52"/>
+      <c r="Y78" s="52"/>
+      <c r="Z78" s="53"/>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B79" s="61">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="52"/>
+      <c r="M79" s="53"/>
+      <c r="O79" s="61">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="P79" s="60"/>
+      <c r="Q79" s="60"/>
+      <c r="R79" s="60"/>
+      <c r="S79" s="60"/>
+      <c r="T79" s="60"/>
+      <c r="U79" s="60"/>
+      <c r="V79" s="60"/>
+      <c r="W79" s="60"/>
+      <c r="X79" s="52"/>
+      <c r="Y79" s="52"/>
+      <c r="Z79" s="53"/>
+    </row>
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B80" s="61">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="52"/>
+      <c r="M80" s="53"/>
+      <c r="O80" s="61">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="P80" s="60"/>
+      <c r="Q80" s="60"/>
+      <c r="R80" s="60"/>
+      <c r="S80" s="60"/>
+      <c r="T80" s="60"/>
+      <c r="U80" s="60"/>
+      <c r="V80" s="60"/>
+      <c r="W80" s="60"/>
+      <c r="X80" s="52"/>
+      <c r="Y80" s="52"/>
+      <c r="Z80" s="53"/>
+    </row>
+    <row r="81" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B81" s="61">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="C81" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="52"/>
+      <c r="L81" s="52"/>
+      <c r="M81" s="53"/>
+      <c r="O81" s="61">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="P81" s="60"/>
+      <c r="Q81" s="60"/>
+      <c r="R81" s="60"/>
+      <c r="S81" s="60"/>
+      <c r="T81" s="60"/>
+      <c r="U81" s="60"/>
+      <c r="V81" s="60"/>
+      <c r="W81" s="60"/>
+      <c r="X81" s="52"/>
+      <c r="Y81" s="52"/>
+      <c r="Z81" s="53"/>
+    </row>
+    <row r="82" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B82" s="61">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="C82" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H82" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="K82" s="52"/>
+      <c r="L82" s="52"/>
+      <c r="M82" s="53"/>
+      <c r="O82" s="61">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="P82" s="60"/>
+      <c r="Q82" s="60"/>
+      <c r="R82" s="60"/>
+      <c r="S82" s="60"/>
+      <c r="T82" s="60"/>
+      <c r="U82" s="60"/>
+      <c r="V82" s="60"/>
+      <c r="W82" s="60"/>
+      <c r="X82" s="52"/>
+      <c r="Y82" s="52"/>
+      <c r="Z82" s="53"/>
+    </row>
+    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B83" s="61">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H83" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I83" s="28">
+        <v>2</v>
+      </c>
+      <c r="J83" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K83" s="52"/>
+      <c r="L83" s="52"/>
+      <c r="M83" s="53"/>
+      <c r="O83" s="61">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="60"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="60"/>
+      <c r="T83" s="60"/>
+      <c r="U83" s="60"/>
+      <c r="V83" s="60"/>
+      <c r="W83" s="60"/>
+      <c r="X83" s="52"/>
+      <c r="Y83" s="52"/>
+      <c r="Z83" s="53"/>
+    </row>
+    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B84" s="61">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="52"/>
+      <c r="L84" s="52"/>
+      <c r="M84" s="53"/>
+      <c r="O84" s="61">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="P84" s="60"/>
+      <c r="Q84" s="60"/>
+      <c r="R84" s="60"/>
+      <c r="S84" s="60"/>
+      <c r="T84" s="60"/>
+      <c r="U84" s="60"/>
+      <c r="V84" s="60"/>
+      <c r="W84" s="60"/>
+      <c r="X84" s="52"/>
+      <c r="Y84" s="52"/>
+      <c r="Z84" s="53"/>
+    </row>
+    <row r="85" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B85" s="61">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="C85" s="60"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="52"/>
+      <c r="L85" s="52"/>
+      <c r="M85" s="53"/>
+      <c r="O85" s="61">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="P85" s="60"/>
+      <c r="Q85" s="60"/>
+      <c r="R85" s="60"/>
+      <c r="S85" s="60"/>
+      <c r="T85" s="60"/>
+      <c r="U85" s="60"/>
+      <c r="V85" s="60"/>
+      <c r="W85" s="60"/>
+      <c r="X85" s="52"/>
+      <c r="Y85" s="52"/>
+      <c r="Z85" s="53"/>
+    </row>
+    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B86" s="61">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="52"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="53"/>
+      <c r="O86" s="61">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="P86" s="60"/>
+      <c r="Q86" s="60"/>
+      <c r="R86" s="60"/>
+      <c r="S86" s="60"/>
+      <c r="T86" s="60"/>
+      <c r="U86" s="60"/>
+      <c r="V86" s="60"/>
+      <c r="W86" s="60"/>
+      <c r="X86" s="52"/>
+      <c r="Y86" s="52"/>
+      <c r="Z86" s="53"/>
+    </row>
+    <row r="87" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B87" s="61">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="53"/>
+      <c r="O87" s="61">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="P87" s="60"/>
+      <c r="Q87" s="60"/>
+      <c r="R87" s="60"/>
+      <c r="S87" s="60"/>
+      <c r="T87" s="60"/>
+      <c r="U87" s="60"/>
+      <c r="V87" s="60"/>
+      <c r="W87" s="60"/>
+      <c r="X87" s="52"/>
+      <c r="Y87" s="52"/>
+      <c r="Z87" s="53"/>
+    </row>
+    <row r="88" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B88" s="61">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="52"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="53"/>
+      <c r="O88" s="61">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="P88" s="60"/>
+      <c r="Q88" s="60"/>
+      <c r="R88" s="60"/>
+      <c r="S88" s="60"/>
+      <c r="T88" s="60"/>
+      <c r="U88" s="60"/>
+      <c r="V88" s="60"/>
+      <c r="W88" s="60"/>
+      <c r="X88" s="52"/>
+      <c r="Y88" s="52"/>
+      <c r="Z88" s="53"/>
+    </row>
+    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B89" s="61">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C89" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I89" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="52"/>
+      <c r="L89" s="52"/>
+      <c r="M89" s="53"/>
+      <c r="O89" s="61">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="P89" s="60"/>
+      <c r="Q89" s="60"/>
+      <c r="R89" s="60"/>
+      <c r="S89" s="60"/>
+      <c r="T89" s="60"/>
+      <c r="U89" s="60"/>
+      <c r="V89" s="60"/>
+      <c r="W89" s="60"/>
+      <c r="X89" s="52"/>
+      <c r="Y89" s="52"/>
+      <c r="Z89" s="53"/>
+    </row>
+    <row r="90" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B90" s="61">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C90" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G90" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H90" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J90" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="K90" s="52"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="53"/>
+      <c r="O90" s="61">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="P90" s="60"/>
+      <c r="Q90" s="60"/>
+      <c r="R90" s="60"/>
+      <c r="S90" s="60"/>
+      <c r="T90" s="60"/>
+      <c r="U90" s="60"/>
+      <c r="V90" s="60"/>
+      <c r="W90" s="60"/>
+      <c r="X90" s="52"/>
+      <c r="Y90" s="52"/>
+      <c r="Z90" s="53"/>
+    </row>
+    <row r="91" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B91" s="61">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" s="28">
+        <v>2</v>
+      </c>
+      <c r="J91" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K91" s="52"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="53"/>
+      <c r="O91" s="61">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="P91" s="60"/>
+      <c r="Q91" s="60"/>
+      <c r="R91" s="60"/>
+      <c r="S91" s="60"/>
+      <c r="T91" s="60"/>
+      <c r="U91" s="60"/>
+      <c r="V91" s="60"/>
+      <c r="W91" s="60"/>
+      <c r="X91" s="52"/>
+      <c r="Y91" s="52"/>
+      <c r="Z91" s="53"/>
+    </row>
+    <row r="92" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B92" s="61">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="C92" s="60"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="60"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="52"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="53"/>
+      <c r="O92" s="61">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="P92" s="60"/>
+      <c r="Q92" s="60"/>
+      <c r="R92" s="60"/>
+      <c r="S92" s="60"/>
+      <c r="T92" s="60"/>
+      <c r="U92" s="60"/>
+      <c r="V92" s="60"/>
+      <c r="W92" s="60"/>
+      <c r="X92" s="52"/>
+      <c r="Y92" s="52"/>
+      <c r="Z92" s="53"/>
+    </row>
+    <row r="93" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B93" s="61">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C93" s="60"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="60"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="52"/>
+      <c r="L93" s="52"/>
+      <c r="M93" s="53"/>
+      <c r="O93" s="61">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="P93" s="60"/>
+      <c r="Q93" s="60"/>
+      <c r="R93" s="60"/>
+      <c r="S93" s="60"/>
+      <c r="T93" s="60"/>
+      <c r="U93" s="60"/>
+      <c r="V93" s="60"/>
+      <c r="W93" s="60"/>
+      <c r="X93" s="52"/>
+      <c r="Y93" s="52"/>
+      <c r="Z93" s="53"/>
+    </row>
+    <row r="94" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B94" s="61">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="C94" s="60"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="60"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="53"/>
+      <c r="O94" s="61">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="P94" s="60"/>
+      <c r="Q94" s="60"/>
+      <c r="R94" s="60"/>
+      <c r="S94" s="60"/>
+      <c r="T94" s="60"/>
+      <c r="U94" s="60"/>
+      <c r="V94" s="60"/>
+      <c r="W94" s="60"/>
+      <c r="X94" s="52"/>
+      <c r="Y94" s="52"/>
+      <c r="Z94" s="53"/>
+    </row>
+    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B95" s="61">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="60"/>
+      <c r="J95" s="60"/>
+      <c r="K95" s="52"/>
+      <c r="L95" s="52"/>
+      <c r="M95" s="53"/>
+      <c r="O95" s="61">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="P95" s="60"/>
+      <c r="Q95" s="60"/>
+      <c r="R95" s="60"/>
+      <c r="S95" s="60"/>
+      <c r="T95" s="60"/>
+      <c r="U95" s="60"/>
+      <c r="V95" s="60"/>
+      <c r="W95" s="60"/>
+      <c r="X95" s="52"/>
+      <c r="Y95" s="52"/>
+      <c r="Z95" s="53"/>
+    </row>
+    <row r="96" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B96" s="61">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="60"/>
+      <c r="J96" s="60"/>
+      <c r="K96" s="52"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="53"/>
+      <c r="O96" s="61">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="P96" s="60"/>
+      <c r="Q96" s="60"/>
+      <c r="R96" s="60"/>
+      <c r="S96" s="60"/>
+      <c r="T96" s="60"/>
+      <c r="U96" s="60"/>
+      <c r="V96" s="60"/>
+      <c r="W96" s="60"/>
+      <c r="X96" s="52"/>
+      <c r="Y96" s="52"/>
+      <c r="Z96" s="53"/>
+    </row>
+    <row r="97" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B97" s="61"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="52"/>
+      <c r="J97" s="52"/>
+      <c r="K97" s="52"/>
+      <c r="L97" s="52"/>
+      <c r="M97" s="53"/>
+      <c r="O97" s="61"/>
+      <c r="P97" s="52"/>
+      <c r="Q97" s="52"/>
+      <c r="R97" s="52"/>
+      <c r="S97" s="52"/>
+      <c r="T97" s="52"/>
+      <c r="U97" s="52"/>
+      <c r="V97" s="52"/>
+      <c r="W97" s="52"/>
+      <c r="X97" s="52"/>
+      <c r="Y97" s="52"/>
+      <c r="Z97" s="53"/>
+    </row>
+    <row r="98" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B98" s="61"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52"/>
+      <c r="K98" s="52"/>
+      <c r="L98" s="52"/>
+      <c r="M98" s="53"/>
+      <c r="O98" s="61"/>
+      <c r="P98" s="52"/>
+      <c r="Q98" s="52"/>
+      <c r="R98" s="52"/>
+      <c r="S98" s="52"/>
+      <c r="T98" s="52"/>
+      <c r="U98" s="52"/>
+      <c r="V98" s="52"/>
+      <c r="W98" s="52"/>
+      <c r="X98" s="52"/>
+      <c r="Y98" s="52"/>
+      <c r="Z98" s="53"/>
+    </row>
+    <row r="99" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B99" s="62"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="63"/>
+      <c r="I99" s="63"/>
+      <c r="J99" s="63"/>
+      <c r="K99" s="63"/>
+      <c r="L99" s="63"/>
+      <c r="M99" s="64"/>
+      <c r="O99" s="62"/>
+      <c r="P99" s="63"/>
+      <c r="Q99" s="63"/>
+      <c r="R99" s="63"/>
+      <c r="S99" s="63"/>
+      <c r="T99" s="63"/>
+      <c r="U99" s="63"/>
+      <c r="V99" s="63"/>
+      <c r="W99" s="63"/>
+      <c r="X99" s="63"/>
+      <c r="Y99" s="63"/>
+      <c r="Z99" s="64"/>
+    </row>
+    <row r="103" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C104" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G104" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="J104" s="71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C105" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G105" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H105" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J105" s="67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C106" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F106" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H106" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" s="28">
+        <v>2</v>
+      </c>
+      <c r="J106" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C109" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="H109" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="I109" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="J109" s="76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C110" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D110" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="H110" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="I110" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="J110" s="78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C111" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="D111" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="78"/>
+      <c r="G111" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H111" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I111" s="78"/>
+      <c r="J111" s="78"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C113" s="79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" s="79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C115" s="79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="79" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3636,4 +6757,3025 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="10" width="3.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="24" width="3.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="16" style="1" customWidth="1"/>
+    <col min="26" max="1025" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="86"/>
+      <c r="O4" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="86"/>
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+      <c r="O5" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="53"/>
+    </row>
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="O6" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="53"/>
+    </row>
+    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="53"/>
+      <c r="O7" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="53"/>
+    </row>
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="53"/>
+    </row>
+    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="55"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="53"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="53"/>
+    </row>
+    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="53"/>
+      <c r="O10" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="53"/>
+    </row>
+    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="56">
+        <v>0</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0</v>
+      </c>
+      <c r="D11" s="81">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="52"/>
+      <c r="L11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="53"/>
+      <c r="O11" s="56">
+        <v>0</v>
+      </c>
+      <c r="P11" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="81">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z11" s="53"/>
+    </row>
+    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="82">
+        <f>SUM(B11+1)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="52"/>
+      <c r="L12" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="53"/>
+      <c r="O12" s="82">
+        <f>SUM(O11+1)</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="V12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z12" s="53"/>
+    </row>
+    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="56">
+        <f t="shared" ref="B13:B30" si="0">B12+1</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="52"/>
+      <c r="L13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="53"/>
+      <c r="O13" s="56">
+        <f t="shared" ref="O13:O29" si="1">O12+1</f>
+        <v>2</v>
+      </c>
+      <c r="P13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z13" s="53"/>
+    </row>
+    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="52"/>
+      <c r="L14" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="53"/>
+      <c r="O14" s="56">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P14" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z14" s="53"/>
+    </row>
+    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="56">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="52"/>
+      <c r="M15" s="53"/>
+      <c r="O15" s="56">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P15" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="X15" s="52"/>
+      <c r="Z15" s="53"/>
+    </row>
+    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="56">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
+      <c r="O16" s="56">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="53"/>
+    </row>
+    <row r="17" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="56">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
+      <c r="O17" s="56">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="W17" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="53"/>
+    </row>
+    <row r="18" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="56">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="53"/>
+      <c r="O18" s="56">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="53"/>
+    </row>
+    <row r="19" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="56">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
+      <c r="O19" s="56">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="V19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="53"/>
+    </row>
+    <row r="20" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="56">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
+      <c r="O20" s="56">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P20" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="T20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="U20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="V20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="53"/>
+    </row>
+    <row r="21" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="56">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
+      <c r="O21" s="56">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="P21" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="T21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="V21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="W21" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="53"/>
+    </row>
+    <row r="22" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="56">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="53"/>
+      <c r="O22" s="56">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="W22" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="53"/>
+    </row>
+    <row r="23" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="56">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
+      <c r="O23" s="56">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="V23" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="53"/>
+    </row>
+    <row r="24" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="56">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="53"/>
+      <c r="O24" s="56">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U24" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="53"/>
+    </row>
+    <row r="25" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="56">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="53"/>
+      <c r="O25" s="56">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P25" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="U25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="W25" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="53"/>
+    </row>
+    <row r="26" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="56">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="53"/>
+      <c r="O26" s="56">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="P26" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="S26" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="U26" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="W26" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="53"/>
+    </row>
+    <row r="27" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="56">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53"/>
+      <c r="O27" s="56">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="P27" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q27" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="R27" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="U27" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="V27" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="W27" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="53"/>
+    </row>
+    <row r="28" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="56">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="53"/>
+      <c r="O28" s="56">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="P28" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="53"/>
+    </row>
+    <row r="29" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="56">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
+      <c r="O29" s="56">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="R29" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="S29" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="T29" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="V29" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="W29" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="53"/>
+    </row>
+    <row r="30" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="56">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="53"/>
+      <c r="O30" s="56">
+        <f>O29+1</f>
+        <v>19</v>
+      </c>
+      <c r="P30" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q30" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="R30" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="U30" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="V30" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="W30" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="53"/>
+    </row>
+    <row r="31" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="64"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="64"/>
+    </row>
+    <row r="32" spans="2:26" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="52"/>
+    </row>
+    <row r="34" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52"/>
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="52"/>
+    </row>
+    <row r="35" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="52"/>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="52"/>
+    </row>
+    <row r="36" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52"/>
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="52"/>
+    </row>
+    <row r="37" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="52"/>
+      <c r="B37" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="86"/>
+      <c r="O37" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="85"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="85"/>
+      <c r="Y37" s="85"/>
+      <c r="Z37" s="86"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+    </row>
+    <row r="38" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="52"/>
+      <c r="B38" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
+      <c r="O38" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="52"/>
+    </row>
+    <row r="39" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="52"/>
+      <c r="B39" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="53"/>
+      <c r="O39" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+    </row>
+    <row r="40" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="52"/>
+      <c r="B40" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="53"/>
+      <c r="O40" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+    </row>
+    <row r="41" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="52"/>
+      <c r="B41" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="53"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+    </row>
+    <row r="42" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="61"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="53"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="53"/>
+    </row>
+    <row r="43" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="61"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="53"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="53"/>
+    </row>
+    <row r="44" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="133"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="53"/>
+      <c r="O44" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="53"/>
+    </row>
+    <row r="45" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="61">
+        <v>0</v>
+      </c>
+      <c r="C45" s="134">
+        <v>0</v>
+      </c>
+      <c r="D45" s="135">
+        <v>1</v>
+      </c>
+      <c r="E45" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="137" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="138"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="53"/>
+      <c r="O45" s="61">
+        <v>0</v>
+      </c>
+      <c r="P45" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="81">
+        <v>1</v>
+      </c>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="60"/>
+      <c r="W45" s="60"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="53"/>
+    </row>
+    <row r="46" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="74">
+        <f>B45+1</f>
+        <v>1</v>
+      </c>
+      <c r="C46" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="95"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="M46" s="53"/>
+      <c r="O46" s="61">
+        <f>O45+1</f>
+        <v>1</v>
+      </c>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="53"/>
+    </row>
+    <row r="47" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="74">
+        <f t="shared" ref="B47:B73" si="2">B46+1</f>
+        <v>2</v>
+      </c>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="M47" s="53"/>
+      <c r="O47" s="61">
+        <f t="shared" ref="O47:O64" si="3">O46+1</f>
+        <v>2</v>
+      </c>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="60"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="53"/>
+    </row>
+    <row r="48" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="61">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="M48" s="53"/>
+      <c r="O48" s="61">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
+      <c r="V48" s="60"/>
+      <c r="W48" s="60"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="53"/>
+    </row>
+    <row r="49" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="61">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="M49" s="53"/>
+      <c r="O49" s="61">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="53"/>
+    </row>
+    <row r="50" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="61">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C50" s="130"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="M50" s="53"/>
+      <c r="O50" s="61">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="Z50" s="53"/>
+    </row>
+    <row r="51" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="61">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C51" s="130"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="131"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="53"/>
+      <c r="O51" s="61">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="60"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="53"/>
+    </row>
+    <row r="52" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="61">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C52" s="72"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="53"/>
+      <c r="O52" s="61">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="53"/>
+    </row>
+    <row r="53" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="61">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="53"/>
+      <c r="O53" s="61">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="53"/>
+    </row>
+    <row r="54" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="61">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C54" s="130"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="97"/>
+      <c r="J54" s="131"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="53"/>
+      <c r="O54" s="61">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="60"/>
+      <c r="V54" s="60"/>
+      <c r="W54" s="60"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="53"/>
+    </row>
+    <row r="55" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="61">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C55" s="127"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="129"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="53"/>
+      <c r="O55" s="61">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="60"/>
+      <c r="V55" s="60"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="53"/>
+    </row>
+    <row r="56" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="61">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C56" s="72"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="53"/>
+      <c r="O56" s="61">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="60"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
+      <c r="V56" s="60"/>
+      <c r="W56" s="60"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="53"/>
+    </row>
+    <row r="57" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="61">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="53"/>
+      <c r="O57" s="61">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
+      <c r="V57" s="60"/>
+      <c r="W57" s="60"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="53"/>
+    </row>
+    <row r="58" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="61">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C58" s="124"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="126"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="53"/>
+      <c r="O58" s="61">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
+      <c r="V58" s="60"/>
+      <c r="W58" s="60"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="53"/>
+    </row>
+    <row r="59" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="61">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C59" s="127"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="128"/>
+      <c r="F59" s="128"/>
+      <c r="G59" s="128"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="128"/>
+      <c r="J59" s="129"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="53"/>
+      <c r="O59" s="61">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="60"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="60"/>
+      <c r="V59" s="60"/>
+      <c r="W59" s="60"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="53"/>
+    </row>
+    <row r="60" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="61"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="98"/>
+      <c r="G60" s="98"/>
+      <c r="H60" s="98"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="98"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="53"/>
+      <c r="O60" s="61">
+        <f>O59+1</f>
+        <v>15</v>
+      </c>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="60"/>
+      <c r="U60" s="60"/>
+      <c r="V60" s="60"/>
+      <c r="W60" s="60"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="53"/>
+    </row>
+    <row r="61" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="98"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="98"/>
+      <c r="I61" s="98"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="53"/>
+      <c r="O61" s="61">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="60"/>
+      <c r="U61" s="60"/>
+      <c r="V61" s="60"/>
+      <c r="W61" s="60"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="53"/>
+    </row>
+    <row r="62" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="61">
+        <v>15</v>
+      </c>
+      <c r="C62" s="140"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="141"/>
+      <c r="G62" s="141"/>
+      <c r="H62" s="141"/>
+      <c r="I62" s="122" t="s">
+        <v>103</v>
+      </c>
+      <c r="J62" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="K62" s="52"/>
+      <c r="L62" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="M62" s="53"/>
+      <c r="O62" s="61">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P62" s="60"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="60"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="60"/>
+      <c r="V62" s="60"/>
+      <c r="W62" s="60"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+      <c r="Z62" s="53"/>
+    </row>
+    <row r="63" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="61">
+        <v>16</v>
+      </c>
+      <c r="C63" s="113"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="114"/>
+      <c r="J63" s="115"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="M63" s="53"/>
+      <c r="O63" s="61">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="P63" s="60"/>
+      <c r="Q63" s="60"/>
+      <c r="R63" s="60"/>
+      <c r="S63" s="60"/>
+      <c r="T63" s="60"/>
+      <c r="U63" s="60"/>
+      <c r="V63" s="60"/>
+      <c r="W63" s="60"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="53"/>
+    </row>
+    <row r="64" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="61">
+        <v>17</v>
+      </c>
+      <c r="C64" s="116"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="117"/>
+      <c r="J64" s="118"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="M64" s="53"/>
+      <c r="O64" s="61">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P64" s="60"/>
+      <c r="Q64" s="60"/>
+      <c r="R64" s="60"/>
+      <c r="S64" s="60"/>
+      <c r="T64" s="60"/>
+      <c r="U64" s="60"/>
+      <c r="V64" s="60"/>
+      <c r="W64" s="60"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="53"/>
+    </row>
+    <row r="65" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="61">
+        <v>18</v>
+      </c>
+      <c r="C65" s="119"/>
+      <c r="D65" s="120"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="120"/>
+      <c r="H65" s="120"/>
+      <c r="I65" s="120"/>
+      <c r="J65" s="121"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="M65" s="53"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="52"/>
+      <c r="W65" s="52"/>
+      <c r="X65" s="52"/>
+      <c r="Y65" s="52"/>
+      <c r="Z65" s="53"/>
+    </row>
+    <row r="66" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="61">
+        <v>19</v>
+      </c>
+      <c r="C66" s="110"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="111"/>
+      <c r="J66" s="112"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="M66" s="53"/>
+      <c r="O66" s="62"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="63"/>
+      <c r="R66" s="63"/>
+      <c r="S66" s="63"/>
+      <c r="T66" s="63"/>
+      <c r="U66" s="63"/>
+      <c r="V66" s="63"/>
+      <c r="W66" s="63"/>
+      <c r="X66" s="63"/>
+      <c r="Y66" s="63"/>
+      <c r="Z66" s="64"/>
+    </row>
+    <row r="67" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="61"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="98"/>
+      <c r="I67" s="98"/>
+      <c r="J67" s="98"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="M67" s="53"/>
+    </row>
+    <row r="68" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="53"/>
+    </row>
+    <row r="69" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="74">
+        <f>B59+1</f>
+        <v>15</v>
+      </c>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="53"/>
+    </row>
+    <row r="70" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="74">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="53"/>
+    </row>
+    <row r="71" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="74">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="53"/>
+    </row>
+    <row r="72" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="74">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="G72" s="99"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="99"/>
+      <c r="J72" s="108"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="53"/>
+    </row>
+    <row r="73" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="74">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C73" s="106"/>
+      <c r="D73" s="107"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="109"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="53"/>
+    </row>
+    <row r="74" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="61"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="53"/>
+    </row>
+    <row r="75" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="62"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="64"/>
+    </row>
+    <row r="76" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="72"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="71"/>
+    </row>
+    <row r="81" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="66"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="67"/>
+    </row>
+    <row r="82" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="J84" s="77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="78"/>
+      <c r="H85" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="J85" s="78"/>
+    </row>
+    <row r="86" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" s="79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="B37:M37"/>
+    <mergeCell ref="O37:Z37"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/MAX30102 Data Format.xlsx
+++ b/MAX30102 Data Format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="119">
   <si>
     <t>Data transfer packet designed for BLE Packet Size</t>
   </si>
@@ -1027,24 +1027,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1197,6 +1179,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2338,34 +2338,34 @@
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="86"/>
-      <c r="O4" s="84" t="s">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
+      <c r="O4" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="86"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="138"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -3873,32 +3873,32 @@
       <c r="B32" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="89"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="141"/>
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
       <c r="M32" s="53"/>
       <c r="O32" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="P32" s="87" t="s">
+      <c r="P32" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="88"/>
-      <c r="V32" s="88"/>
-      <c r="W32" s="89"/>
+      <c r="Q32" s="140"/>
+      <c r="R32" s="140"/>
+      <c r="S32" s="140"/>
+      <c r="T32" s="140"/>
+      <c r="U32" s="140"/>
+      <c r="V32" s="140"/>
+      <c r="W32" s="141"/>
       <c r="X32" s="52"/>
       <c r="Y32" s="52"/>
       <c r="Z32" s="53"/>
@@ -6763,8 +6763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6825,34 +6825,34 @@
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="86"/>
-      <c r="O4" s="84" t="s">
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="138"/>
+      <c r="O4" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="86"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="137"/>
+      <c r="U4" s="137"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="138"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -8473,42 +8473,40 @@
     </row>
     <row r="37" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52"/>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="86"/>
-      <c r="O37" s="84" t="s">
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="137"/>
+      <c r="L37" s="137"/>
+      <c r="M37" s="138"/>
+      <c r="O37" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="85"/>
-      <c r="S37" s="85"/>
-      <c r="T37" s="85"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="85"/>
-      <c r="W37" s="85"/>
-      <c r="X37" s="85"/>
-      <c r="Y37" s="85"/>
-      <c r="Z37" s="86"/>
+      <c r="P37" s="137"/>
+      <c r="Q37" s="137"/>
+      <c r="R37" s="137"/>
+      <c r="S37" s="137"/>
+      <c r="T37" s="137"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="137"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="137"/>
+      <c r="Y37" s="137"/>
+      <c r="Z37" s="138"/>
       <c r="AA37" s="52"/>
       <c r="AB37" s="52"/>
     </row>
     <row r="38" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52"/>
-      <c r="B38" s="51" t="s">
-        <v>31</v>
-      </c>
+      <c r="B38" s="51"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
       <c r="E38" s="52"/>
@@ -8520,9 +8518,7 @@
       <c r="K38" s="52"/>
       <c r="L38" s="52"/>
       <c r="M38" s="53"/>
-      <c r="O38" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="O38" s="51"/>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
       <c r="R38" s="52"/>
@@ -8690,14 +8686,14 @@
       <c r="B44" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
       <c r="K44" s="52"/>
       <c r="L44" s="52"/>
       <c r="M44" s="53"/>
@@ -8720,26 +8716,26 @@
       <c r="B45" s="61">
         <v>0</v>
       </c>
-      <c r="C45" s="134">
+      <c r="C45" s="128">
         <v>0</v>
       </c>
-      <c r="D45" s="135">
+      <c r="D45" s="129">
         <v>1</v>
       </c>
-      <c r="E45" s="139" t="s">
+      <c r="E45" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="F45" s="136" t="s">
+      <c r="F45" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="137" t="s">
+      <c r="G45" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="H45" s="138"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="126"/>
       <c r="K45" s="52"/>
-      <c r="L45" s="96" t="s">
+      <c r="L45" s="90" t="s">
         <v>34</v>
       </c>
       <c r="M45" s="53"/>
@@ -8767,18 +8763,18 @@
         <f>B45+1</f>
         <v>1</v>
       </c>
-      <c r="C46" s="95" t="s">
+      <c r="C46" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="95"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="132"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="126"/>
       <c r="K46" s="52"/>
-      <c r="L46" s="90" t="s">
+      <c r="L46" s="84" t="s">
         <v>88</v>
       </c>
       <c r="M46" s="53"/>
@@ -8803,16 +8799,16 @@
         <f t="shared" ref="B47:B73" si="2">B46+1</f>
         <v>2</v>
       </c>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="93"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="87"/>
       <c r="K47" s="52"/>
-      <c r="L47" s="91" t="s">
+      <c r="L47" s="85" t="s">
         <v>91</v>
       </c>
       <c r="M47" s="53"/>
@@ -8848,7 +8844,7 @@
       <c r="I48" s="73"/>
       <c r="J48" s="71"/>
       <c r="K48" s="52"/>
-      <c r="L48" s="94" t="s">
+      <c r="L48" s="88" t="s">
         <v>89</v>
       </c>
       <c r="M48" s="53"/>
@@ -8907,18 +8903,18 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C50" s="130"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97" t="s">
+      <c r="C50" s="124"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="131"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="125"/>
       <c r="K50" s="52"/>
-      <c r="L50" s="97" t="s">
+      <c r="L50" s="91" t="s">
         <v>96</v>
       </c>
       <c r="M50" s="53"/>
@@ -8943,14 +8939,14 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C51" s="130"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="131"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="125"/>
       <c r="K51" s="52"/>
       <c r="L51" s="52"/>
       <c r="M51" s="53"/>
@@ -9041,16 +9037,16 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C54" s="130"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97" t="s">
+      <c r="C54" s="124"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="131"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="125"/>
       <c r="K54" s="52"/>
       <c r="L54" s="52"/>
       <c r="M54" s="53"/>
@@ -9075,14 +9071,14 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C55" s="127"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="128"/>
-      <c r="I55" s="128"/>
-      <c r="J55" s="129"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="123"/>
       <c r="K55" s="52"/>
       <c r="L55" s="52"/>
       <c r="M55" s="53"/>
@@ -9173,16 +9169,16 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C58" s="124"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125" t="s">
+      <c r="C58" s="118"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="126"/>
+      <c r="G58" s="119"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="119"/>
+      <c r="J58" s="120"/>
       <c r="K58" s="52"/>
       <c r="L58" s="52"/>
       <c r="M58" s="53"/>
@@ -9207,14 +9203,14 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C59" s="127"/>
-      <c r="D59" s="128"/>
-      <c r="E59" s="128"/>
-      <c r="F59" s="128"/>
-      <c r="G59" s="128"/>
-      <c r="H59" s="128"/>
-      <c r="I59" s="128"/>
-      <c r="J59" s="129"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="123"/>
       <c r="K59" s="52"/>
       <c r="L59" s="52"/>
       <c r="M59" s="53"/>
@@ -9236,14 +9232,14 @@
     </row>
     <row r="60" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="61"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="98"/>
-      <c r="H60" s="98"/>
-      <c r="I60" s="98"/>
-      <c r="J60" s="98"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
       <c r="K60" s="52"/>
       <c r="L60" s="52"/>
       <c r="M60" s="53"/>
@@ -9267,13 +9263,13 @@
       <c r="B61" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="98"/>
-      <c r="I61" s="98"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="92"/>
+      <c r="I61" s="92"/>
       <c r="J61" s="83"/>
       <c r="K61" s="52"/>
       <c r="L61" s="52"/>
@@ -9298,22 +9294,22 @@
       <c r="B62" s="61">
         <v>15</v>
       </c>
-      <c r="C62" s="140"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="141" t="s">
+      <c r="C62" s="134"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="F62" s="141"/>
-      <c r="G62" s="141"/>
-      <c r="H62" s="141"/>
-      <c r="I62" s="122" t="s">
+      <c r="F62" s="135"/>
+      <c r="G62" s="135"/>
+      <c r="H62" s="135"/>
+      <c r="I62" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="J62" s="123" t="s">
+      <c r="J62" s="117" t="s">
         <v>104</v>
       </c>
       <c r="K62" s="52"/>
-      <c r="L62" s="100" t="s">
+      <c r="L62" s="94" t="s">
         <v>109</v>
       </c>
       <c r="M62" s="53"/>
@@ -9337,18 +9333,18 @@
       <c r="B63" s="61">
         <v>16</v>
       </c>
-      <c r="C63" s="113"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114" t="s">
+      <c r="C63" s="107"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="G63" s="114"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="114"/>
-      <c r="J63" s="115"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="109"/>
       <c r="K63" s="52"/>
-      <c r="L63" s="102" t="s">
+      <c r="L63" s="96" t="s">
         <v>110</v>
       </c>
       <c r="M63" s="53"/>
@@ -9372,18 +9368,18 @@
       <c r="B64" s="61">
         <v>17</v>
       </c>
-      <c r="C64" s="116"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117" t="s">
+      <c r="C64" s="110"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="118"/>
+      <c r="G64" s="111"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="111"/>
+      <c r="J64" s="112"/>
       <c r="K64" s="52"/>
-      <c r="L64" s="101" t="s">
+      <c r="L64" s="95" t="s">
         <v>105</v>
       </c>
       <c r="M64" s="53"/>
@@ -9407,18 +9403,18 @@
       <c r="B65" s="61">
         <v>18</v>
       </c>
-      <c r="C65" s="119"/>
-      <c r="D65" s="120"/>
-      <c r="E65" s="120"/>
-      <c r="F65" s="120" t="s">
+      <c r="C65" s="113"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="G65" s="120"/>
-      <c r="H65" s="120"/>
-      <c r="I65" s="120"/>
-      <c r="J65" s="121"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="114"/>
+      <c r="J65" s="115"/>
       <c r="K65" s="52"/>
-      <c r="L65" s="104" t="s">
+      <c r="L65" s="98" t="s">
         <v>106</v>
       </c>
       <c r="M65" s="53"/>
@@ -9439,18 +9435,18 @@
       <c r="B66" s="61">
         <v>19</v>
       </c>
-      <c r="C66" s="110"/>
-      <c r="D66" s="111"/>
-      <c r="E66" s="111"/>
-      <c r="F66" s="111" t="s">
+      <c r="C66" s="104"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="G66" s="111"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="111"/>
-      <c r="J66" s="112"/>
+      <c r="G66" s="105"/>
+      <c r="H66" s="105"/>
+      <c r="I66" s="105"/>
+      <c r="J66" s="106"/>
       <c r="K66" s="52"/>
-      <c r="L66" s="103" t="s">
+      <c r="L66" s="97" t="s">
         <v>107</v>
       </c>
       <c r="M66" s="53"/>
@@ -9469,16 +9465,16 @@
     </row>
     <row r="67" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="61"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="98"/>
-      <c r="H67" s="98"/>
-      <c r="I67" s="98"/>
-      <c r="J67" s="98"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
       <c r="K67" s="52"/>
-      <c r="L67" s="105" t="s">
+      <c r="L67" s="99" t="s">
         <v>108</v>
       </c>
       <c r="M67" s="53"/>
@@ -9540,14 +9536,14 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="99"/>
-      <c r="H71" s="99"/>
-      <c r="I71" s="99"/>
-      <c r="J71" s="108"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="93"/>
+      <c r="J71" s="102"/>
       <c r="K71" s="52"/>
       <c r="L71" s="52"/>
       <c r="M71" s="53"/>
@@ -9557,16 +9553,16 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="C72" s="99"/>
-      <c r="D72" s="99"/>
-      <c r="E72" s="99"/>
-      <c r="F72" s="99" t="s">
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="G72" s="99"/>
-      <c r="H72" s="99"/>
-      <c r="I72" s="99"/>
-      <c r="J72" s="108"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="93"/>
+      <c r="J72" s="102"/>
       <c r="K72" s="52"/>
       <c r="L72" s="52"/>
       <c r="M72" s="53"/>
@@ -9576,14 +9572,14 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C73" s="106"/>
-      <c r="D73" s="107"/>
-      <c r="E73" s="107"/>
-      <c r="F73" s="107"/>
-      <c r="G73" s="107"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="107"/>
-      <c r="J73" s="109"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="101"/>
+      <c r="F73" s="101"/>
+      <c r="G73" s="101"/>
+      <c r="H73" s="101"/>
+      <c r="I73" s="101"/>
+      <c r="J73" s="103"/>
       <c r="K73" s="52"/>
       <c r="L73" s="52"/>
       <c r="M73" s="53"/>
